--- a/data/Demand_data.xlsx
+++ b/data/Demand_data.xlsx
@@ -2670,7 +2670,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2681,6 +2681,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -2714,19 +2720,19 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -3052,8 +3058,8 @@
     <col min="4" max="4" style="6" width="19.576428571428572" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="6" width="19.14785714285714" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="6" width="21.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="27.576428571428572" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
@@ -3106,7 +3112,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -3150,7 +3156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -3194,7 +3200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -3238,7 +3244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -3282,7 +3288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -3326,7 +3332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -3370,7 +3376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -3414,7 +3420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -3458,7 +3464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -3502,7 +3508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -3546,7 +3552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -3590,7 +3596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -3634,7 +3640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -3678,7 +3684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -3722,7 +3728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -3766,7 +3772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -3810,7 +3816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -3854,7 +3860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -3898,7 +3904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -3942,7 +3948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -3986,7 +3992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -4030,7 +4036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -4074,7 +4080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -4118,7 +4124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="4">
         <v>24</v>
       </c>
